--- a/datas/2023-04-22.xlsx
+++ b/datas/2023-04-22.xlsx
@@ -432,6 +432,11 @@
           <t>粉丝数</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>联系方式</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr">
         <is>
           <t>网址</t>
